--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1774371.55834775</v>
+        <v>1736334.942166474</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.353777918</v>
+        <v>421727.3537779186</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481813</v>
+        <v>7956703.636481815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8061567.682243577</v>
+        <v>8061567.682243578</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14.24973044685159</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.7959920252086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.07867728478316</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>5.521978971826089</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>84.22431226721284</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>153.2838117406914</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5595077196285</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -1025,16 +1025,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.75502769643857</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.90756012708899</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>36.3630073844833</v>
+      </c>
+      <c r="C8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1192,16 +1192,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.5873152526073</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>35.26748965112991</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>21.5650211494213</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.52197897182606</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.0130002680851</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>152.9615324804941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S11" t="n">
         <v>177.493467653868</v>
@@ -1426,10 +1426,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S12" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
         <v>195.6974464808964</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.91378322450745</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>143.4656465272897</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>292.7645020723072</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>232.1050720854953</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
@@ -1666,10 +1666,10 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>12.1072131707399</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T15" t="n">
         <v>195.6974464808964</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>112.2252571302024</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>216.5124530276621</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>95.20458314951361</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>97.7077836241547</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -1943,7 +1943,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -1985,7 +1985,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>104.7330008953557</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.905746389416297</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>223.709992168086</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>174.6924936692933</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
@@ -2140,13 +2140,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>295.1484043158608</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>136.2131296253253</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>75.67504324679705</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.06659249781271</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.574336931324</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.51229640345257</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>413.6097194764729</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>176.3263287160134</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T24" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U24" t="n">
         <v>224.6133508632724</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10.32221953712853</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>110.574336931324</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -2569,7 +2569,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>69.78009419573741</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>244.4512913039253</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H27" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U27" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>13.07204123968297</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>23.0304243403796</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>67.21609990296915</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>144.1006681612168</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S30" t="n">
-        <v>128.2342301244892</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T30" t="n">
         <v>195.6974464808964</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>13.06659249781271</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.119231654834211</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>232.3701029471846</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.7703613749648</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S33" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>67.0413572180683</v>
+        <v>83.10601891920932</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>186.7812753573469</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>233.3313154378878</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="H37" t="n">
-        <v>150.8573325918307</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>108.7179383032046</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>256.565110727037</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -3587,7 +3587,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.3801900072069</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.51342957218341</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>290.3425459435754</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.06055601365183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3957,13 +3957,13 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>110.3801900072069</v>
       </c>
       <c r="W43" t="n">
-        <v>83.58419887257689</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>79.16356825114121</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.5802106119324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,16 +4067,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>61.81771630496194</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>94.12953483606209</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.93182024963501</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>131.206065455986</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.2782741702153</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C2" t="n">
         <v>252.2782741702153</v>
@@ -4333,10 +4333,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4357,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725947</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>699.833627065984</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>699.833627065984</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W2" t="n">
-        <v>699.833627065984</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X2" t="n">
-        <v>422.7792762158805</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.2782741702153</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="3">
@@ -4409,13 +4409,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>87.60320201771924</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M3" t="n">
         <v>359.1441712859057</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y3" t="n">
-        <v>981.2022424513852</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="C4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="D4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="E4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="F4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="G4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="H4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L4" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M4" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N4" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O4" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>921.9926559625894</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>916.4148994253914</v>
+        <v>185.2094439902745</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>399.7428683723875</v>
+        <v>591.7221563263165</v>
       </c>
       <c r="C5" t="n">
-        <v>399.7428683723875</v>
+        <v>591.7221563263165</v>
       </c>
       <c r="D5" t="n">
-        <v>399.7428683723875</v>
+        <v>591.7221563263165</v>
       </c>
       <c r="E5" t="n">
-        <v>399.7428683723875</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9107353009821</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4570,19 +4570,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K5" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L5" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4609,7 +4609,7 @@
         <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>953.8515700725947</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="Y5" t="n">
         <v>676.7972192224911</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="C6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F6" t="n">
         <v>358.2955017516178</v>
@@ -4655,13 +4655,13 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>680.8032373555836</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N6" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1001.483734658237</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>1001.483734658237</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>774.5572931762155</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="W6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="X6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="Y6" t="n">
-        <v>774.5572931762155</v>
+        <v>358.2955017516178</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>52.15236128135749</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.98099349534252</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="C8" t="n">
-        <v>44.98099349534252</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="D8" t="n">
-        <v>44.98099349534252</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>22.60864108688619</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
         <v>22.60864108688619</v>
@@ -4840,16 +4840,16 @@
         <v>843.1172863597994</v>
       </c>
       <c r="V8" t="n">
-        <v>843.1172863597994</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="W8" t="n">
-        <v>843.1172863597994</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="X8" t="n">
-        <v>599.0896951955497</v>
+        <v>566.0629355096959</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.0353443454461</v>
+        <v>566.0629355096959</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.3195465858443</v>
+        <v>869.6239439441804</v>
       </c>
       <c r="C9" t="n">
-        <v>57.56643150766143</v>
+        <v>696.8708288659975</v>
       </c>
       <c r="D9" t="n">
-        <v>57.56643150766143</v>
+        <v>549.2825222249414</v>
       </c>
       <c r="E9" t="n">
-        <v>57.56643150766143</v>
+        <v>391.6729932277962</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>246.717203244413</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>21.9427045873282</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M9" t="n">
-        <v>293.4836738555147</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N9" t="n">
-        <v>549.5069725377944</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>603.8889963018272</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>603.8889963018272</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>603.8889963018272</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>397.3620977074047</v>
+        <v>1075.35237972053</v>
       </c>
       <c r="Y9" t="n">
-        <v>397.3620977074047</v>
+        <v>869.6239439441804</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>197.0852779911487</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.71143199091319</v>
+        <v>565.4248312182793</v>
       </c>
       <c r="C11" t="n">
-        <v>50.71143199091319</v>
+        <v>565.4248312182793</v>
       </c>
       <c r="D11" t="n">
-        <v>50.71143199091319</v>
+        <v>205.2180304560587</v>
       </c>
       <c r="E11" t="n">
-        <v>50.71143199091319</v>
+        <v>205.2180304560587</v>
       </c>
       <c r="F11" t="n">
-        <v>50.71143199091319</v>
+        <v>205.2180304560587</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>205.2180304560587</v>
       </c>
       <c r="H11" t="n">
         <v>50.71143199091319</v>
@@ -5047,7 +5047,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2136.573219441338</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>1882.655886206635</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>1550.804147294999</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W11" t="n">
-        <v>1196.733322041914</v>
+        <v>1718.217842201916</v>
       </c>
       <c r="X11" t="n">
-        <v>822.1256461518435</v>
+        <v>1343.610166311846</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.5326443829184</v>
+        <v>953.0171645429208</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M12" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
         <v>1620.913172155677</v>
       </c>
       <c r="O12" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P12" t="n">
         <v>2370.209254145837</v>
@@ -5147,25 +5147,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>327.4148581822698</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1637117681104</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5208,7 +5208,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N13" t="n">
         <v>494.2381528619504</v>
@@ -5220,31 +5220,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>496.4361755452314</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="U13" t="n">
-        <v>496.4361755452314</v>
+        <v>534.6273016871237</v>
       </c>
       <c r="V13" t="n">
-        <v>496.4361755452314</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W13" t="n">
-        <v>496.4361755452314</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>757.8410941655072</v>
+        <v>1443.763658330229</v>
       </c>
       <c r="C14" t="n">
-        <v>757.8410941655072</v>
+        <v>1443.763658330229</v>
       </c>
       <c r="D14" t="n">
-        <v>757.8410941655072</v>
+        <v>1083.556857568008</v>
       </c>
       <c r="E14" t="n">
-        <v>462.1193749005504</v>
+        <v>696.568942663677</v>
       </c>
       <c r="F14" t="n">
-        <v>50.71143199091319</v>
+        <v>285.1609997540398</v>
       </c>
       <c r="G14" t="n">
         <v>50.71143199091319</v>
@@ -5278,13 +5278,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5314,16 +5314,16 @@
         <v>1818.371334220299</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.519595308663</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W14" t="n">
-        <v>1132.448770055577</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="X14" t="n">
-        <v>757.8410941655072</v>
+        <v>1443.763658330229</v>
       </c>
       <c r="Y14" t="n">
-        <v>757.8410941655072</v>
+        <v>1443.763658330229</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>886.7819051675707</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C15" t="n">
-        <v>714.0287900893879</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D15" t="n">
-        <v>566.4404834483319</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E15" t="n">
-        <v>408.8309544511866</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F15" t="n">
-        <v>263.8751644678034</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1508696139405</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
@@ -5363,16 +5363,16 @@
         <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
         <v>2370.209254145837</v>
@@ -5381,28 +5381,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2377.401886754675</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T15" t="n">
-        <v>2179.727698390133</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U15" t="n">
-        <v>1952.845525800969</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V15" t="n">
-        <v>1718.59428232657</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.079790659903</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X15" t="n">
-        <v>1259.552892065481</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y15" t="n">
-        <v>1053.824456289131</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5445,7 +5445,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N16" t="n">
         <v>494.2381528619504</v>
@@ -5466,22 +5466,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591335</v>
+        <v>232.6141506683716</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591335</v>
+        <v>232.6141506683716</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591335</v>
+        <v>232.6141506683716</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591335</v>
+        <v>232.6141506683716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>517.5696934337983</v>
+        <v>1219.799305642197</v>
       </c>
       <c r="C17" t="n">
-        <v>146.8776775964825</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D17" t="n">
-        <v>146.8776775964825</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E17" t="n">
-        <v>50.71143199091319</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F17" t="n">
         <v>50.71143199091319</v>
@@ -5515,13 +5515,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K17" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V17" t="n">
-        <v>2024.433529670521</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W17" t="n">
-        <v>1670.362704417435</v>
+        <v>2372.592316625834</v>
       </c>
       <c r="X17" t="n">
-        <v>1295.755028527365</v>
+        <v>1997.984640735764</v>
       </c>
       <c r="Y17" t="n">
-        <v>905.1620267584398</v>
+        <v>1607.391638966838</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
         <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P18" t="n">
         <v>2370.209254145837</v>
@@ -5624,13 +5624,13 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W18" t="n">
         <v>1558.92990744237</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>677.6170998061878</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>508.5902786635592</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>358.0796054165699</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H19" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I19" t="n">
         <v>50.71143199091319</v>
@@ -5682,7 +5682,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206215</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N19" t="n">
         <v>494.2381528619504</v>
@@ -5709,16 +5709,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>679.5420961591335</v>
+        <v>677.6170998061878</v>
       </c>
       <c r="W19" t="n">
-        <v>679.5420961591335</v>
+        <v>677.6170998061878</v>
       </c>
       <c r="X19" t="n">
-        <v>453.5724071004607</v>
+        <v>677.6170998061878</v>
       </c>
       <c r="Y19" t="n">
-        <v>232.6141506683716</v>
+        <v>677.6170998061878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1132.448770055577</v>
+        <v>822.326175662771</v>
       </c>
       <c r="C20" t="n">
-        <v>1132.448770055577</v>
+        <v>822.326175662771</v>
       </c>
       <c r="D20" t="n">
-        <v>1132.448770055577</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E20" t="n">
-        <v>1132.448770055577</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F20" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724809</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.726164853582</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.519595308663</v>
+        <v>1584.526184877483</v>
       </c>
       <c r="W20" t="n">
-        <v>1132.448770055577</v>
+        <v>1584.526184877483</v>
       </c>
       <c r="X20" t="n">
-        <v>1132.448770055577</v>
+        <v>1209.918508987412</v>
       </c>
       <c r="Y20" t="n">
-        <v>1132.448770055577</v>
+        <v>1209.918508987412</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C21" t="n">
-        <v>660.1553252004969</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D21" t="n">
-        <v>522.566305376936</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E21" t="n">
-        <v>364.9567763797908</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F21" t="n">
-        <v>220.0009863964076</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964076</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
@@ -5855,28 +5855,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S21" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T21" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U21" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1906.740935377439</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="C22" t="n">
-        <v>1906.740935377439</v>
+        <v>497.316696735886</v>
       </c>
       <c r="D22" t="n">
-        <v>1906.740935377439</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E22" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K22" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L22" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.343101557587</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.432184803019</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X22" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y22" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1528.077719561228</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="C23" t="n">
-        <v>1157.385703723912</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D23" t="n">
-        <v>797.1789029616918</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E23" t="n">
-        <v>797.1789029616918</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F23" t="n">
         <v>797.1789029616918</v>
@@ -5989,19 +5989,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K23" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6019,22 +6019,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V23" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W23" t="n">
-        <v>1961.788725151755</v>
+        <v>2357.464196802212</v>
       </c>
       <c r="X23" t="n">
-        <v>1587.181049261685</v>
+        <v>2357.464196802212</v>
       </c>
       <c r="Y23" t="n">
-        <v>1587.181049261685</v>
+        <v>1966.871195033286</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L24" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O24" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P24" t="n">
         <v>2370.209254145837</v>
@@ -6098,22 +6098,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>61.13791637185111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
         <v>50.71143199091319</v>
@@ -6177,22 +6177,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>162.402681416493</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>451.1174901669019</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.1592337348128</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1650.491050036476</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C26" t="n">
-        <v>1279.79903419916</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D26" t="n">
-        <v>919.5922334369393</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E26" t="n">
-        <v>532.6043185326084</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F26" t="n">
-        <v>121.1963756229712</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
         <v>50.71143199091319</v>
@@ -6226,10 +6226,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K26" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L26" t="n">
         <v>829.7261648535823</v>
@@ -6238,7 +6238,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6259,19 +6259,19 @@
         <v>2292.00071659582</v>
       </c>
       <c r="U26" t="n">
-        <v>2038.083383361117</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="V26" t="n">
-        <v>2038.083383361117</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="W26" t="n">
-        <v>2038.083383361117</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="X26" t="n">
-        <v>2038.083383361117</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y26" t="n">
-        <v>2038.083383361117</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
@@ -6308,22 +6308,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6338,19 +6338,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="C28" t="n">
-        <v>666.3380140988477</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="D28" t="n">
-        <v>515.8273408518584</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="E28" t="n">
         <v>367.3681245152936</v>
@@ -6417,19 +6417,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="Y28" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1361.249973554121</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C29" t="n">
-        <v>1361.249973554121</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="D29" t="n">
-        <v>1001.0431727919</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="E29" t="n">
-        <v>614.0552578875695</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F29" t="n">
-        <v>614.0552578875695</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>196.2676624567888</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
         <v>50.71143199091319</v>
@@ -6463,13 +6463,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K29" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6499,16 +6499,16 @@
         <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>2139.435308647688</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W29" t="n">
-        <v>2139.435308647688</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X29" t="n">
-        <v>2139.435308647688</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y29" t="n">
-        <v>1748.842306878762</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6566,28 +6566,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S30" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T30" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V30" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W30" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2075.767756520068</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="C31" t="n">
-        <v>1906.740935377439</v>
+        <v>497.316696735886</v>
       </c>
       <c r="D31" t="n">
-        <v>1906.740935377439</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E31" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K31" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L31" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M31" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>2532.420860500372</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>2304.192362512299</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U31" t="n">
-        <v>2304.192362512299</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V31" t="n">
-        <v>2304.192362512299</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W31" t="n">
-        <v>2304.192362512299</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X31" t="n">
-        <v>2075.767756520068</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y31" t="n">
-        <v>2075.767756520068</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>781.6102485904496</v>
+        <v>1403.315439199007</v>
       </c>
       <c r="C32" t="n">
-        <v>410.9182327531338</v>
+        <v>1032.623423361691</v>
       </c>
       <c r="D32" t="n">
-        <v>50.71143199091319</v>
+        <v>672.4166225994709</v>
       </c>
       <c r="E32" t="n">
-        <v>50.71143199091319</v>
+        <v>285.4287076951401</v>
       </c>
       <c r="F32" t="n">
         <v>50.71143199091319</v>
@@ -6700,10 +6700,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724806</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L32" t="n">
         <v>829.7261648535821</v>
@@ -6718,7 +6718,7 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P32" t="n">
-        <v>2398.446208459428</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q32" t="n">
         <v>2535.571599545659</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>2102.367935347454</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>1770.516196435818</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>1416.445371182732</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X32" t="n">
-        <v>1416.445371182732</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="Y32" t="n">
-        <v>1169.202581915091</v>
+        <v>1790.907772523649</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C33" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6806,25 +6806,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.681121049586</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C34" t="n">
-        <v>276.681121049586</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D34" t="n">
-        <v>276.681121049586</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E34" t="n">
-        <v>208.9625784050725</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F34" t="n">
-        <v>208.9625784050725</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G34" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H34" t="n">
         <v>50.71143199091319</v>
@@ -6888,22 +6888,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U34" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V34" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W34" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X34" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.5838397270444</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1521.698067040085</v>
+        <v>1007.920092586349</v>
       </c>
       <c r="C35" t="n">
-        <v>1151.006051202769</v>
+        <v>1007.920092586349</v>
       </c>
       <c r="D35" t="n">
-        <v>790.7992504405483</v>
+        <v>1007.920092586349</v>
       </c>
       <c r="E35" t="n">
-        <v>790.7992504405483</v>
+        <v>620.9321776820185</v>
       </c>
       <c r="F35" t="n">
-        <v>379.3913075309111</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="G35" t="n">
-        <v>379.3913075309111</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H35" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724806</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
         <v>829.7261648535821</v>
@@ -6955,7 +6955,7 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P35" t="n">
-        <v>2398.446208459428</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q35" t="n">
         <v>2535.571599545659</v>
@@ -6967,22 +6967,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T35" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.571599545659</v>
+        <v>1961.788725151755</v>
       </c>
       <c r="X35" t="n">
-        <v>2299.883402133652</v>
+        <v>1587.181049261685</v>
       </c>
       <c r="Y35" t="n">
-        <v>1909.290400364726</v>
+        <v>1196.58804749276</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="C37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="D37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="E37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="F37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="G37" t="n">
-        <v>203.0925760230654</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H37" t="n">
         <v>50.71143199091319</v>
@@ -7128,19 +7128,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>424.0508324551545</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W37" t="n">
-        <v>424.0508324551545</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="X37" t="n">
-        <v>424.0508324551545</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.0925760230654</v>
+        <v>135.1399157005869</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>531.2195471243953</v>
+        <v>696.8560243973016</v>
       </c>
       <c r="C38" t="n">
-        <v>160.5275312870795</v>
+        <v>696.8560243973016</v>
       </c>
       <c r="D38" t="n">
-        <v>160.5275312870795</v>
+        <v>696.8560243973016</v>
       </c>
       <c r="E38" t="n">
-        <v>160.5275312870795</v>
+        <v>309.8681094929707</v>
       </c>
       <c r="F38" t="n">
-        <v>50.71143199091319</v>
+        <v>309.8681094929707</v>
       </c>
       <c r="G38" t="n">
         <v>50.71143199091319</v>
@@ -7174,13 +7174,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K38" t="n">
         <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U38" t="n">
-        <v>2038.083383361117</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V38" t="n">
-        <v>2038.083383361117</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W38" t="n">
-        <v>1684.012558108032</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.404882217962</v>
+        <v>1475.041359490868</v>
       </c>
       <c r="Y38" t="n">
-        <v>918.8118804490367</v>
+        <v>1084.448357721943</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7256,22 +7256,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.275517555499</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O39" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="G40" t="n">
         <v>50.71143199091319</v>
@@ -7365,19 +7365,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>679.5420961591335</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V40" t="n">
-        <v>424.0508324551545</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W40" t="n">
-        <v>135.0684315587752</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>162.2065734123343</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>739.5981082931316</v>
+        <v>1226.178958163341</v>
       </c>
       <c r="C41" t="n">
-        <v>739.5981082931316</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="D41" t="n">
-        <v>379.3913075309111</v>
+        <v>855.4869423260247</v>
       </c>
       <c r="E41" t="n">
-        <v>379.3913075309111</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F41" t="n">
-        <v>379.3913075309111</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7411,13 +7411,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U41" t="n">
-        <v>1818.371334220299</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.519595308663</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="W41" t="n">
-        <v>1132.448770055577</v>
+        <v>1988.378967378052</v>
       </c>
       <c r="X41" t="n">
-        <v>757.8410941655072</v>
+        <v>1613.771291487982</v>
       </c>
       <c r="Y41" t="n">
-        <v>739.5981082931316</v>
+        <v>1613.771291487982</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L42" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O42" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.660682791092</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.169419087113</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="W43" t="n">
-        <v>1906.740935377439</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1038.719773112799</v>
+        <v>1489.374989203793</v>
       </c>
       <c r="C44" t="n">
-        <v>1038.719773112799</v>
+        <v>1118.682973366477</v>
       </c>
       <c r="D44" t="n">
-        <v>1038.719773112799</v>
+        <v>1118.682973366477</v>
       </c>
       <c r="E44" t="n">
         <v>1038.719773112799</v>
@@ -7651,16 +7651,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U44" t="n">
-        <v>2281.654266310957</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V44" t="n">
-        <v>1949.802527399321</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="W44" t="n">
-        <v>1595.731702146235</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="X44" t="n">
-        <v>1221.124026256165</v>
+        <v>1876.967322528434</v>
       </c>
       <c r="Y44" t="n">
-        <v>1038.719773112799</v>
+        <v>1876.967322528434</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>155.7910570266529</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H45" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K45" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L45" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N45" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="C46" t="n">
-        <v>464.7698324521643</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="D46" t="n">
-        <v>464.7698324521643</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="E46" t="n">
-        <v>464.7698324521643</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="F46" t="n">
-        <v>464.7698324521643</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G46" t="n">
-        <v>397.1619332101088</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H46" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="U46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="V46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="W46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="X46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
       <c r="Y46" t="n">
-        <v>464.7698324521643</v>
+        <v>547.0107169106628</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,16 +8057,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>201.4142550635501</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>331.0717909466363</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8218,7 +8218,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L5" t="n">
         <v>434.3676631324684</v>
@@ -8303,16 +8303,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N6" t="n">
-        <v>278.010061234286</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>386.6675618896134</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9005,13 +9005,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>60.72933541128936</v>
+        <v>60.72933541128934</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>270.0369277806005</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9023,7 +9023,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>215.5642480505372</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.8433479102859</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,13 +9728,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>215.5642480505376</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -9956,7 +9956,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.8433479102859</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.8433479102859</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10904,7 +10904,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>256.0341459363813</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10916,13 +10916,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11299,7 +11299,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740113</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.703409723309903</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23275,7 +23275,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>172.4315443041038</v>
       </c>
       <c r="I11" t="n">
         <v>157.2246747536534</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>69.0496042775606</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>82.48056648090244</v>
       </c>
       <c r="U13" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23500,16 +23500,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>90.35353368298024</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>181.5046473909776</v>
       </c>
       <c r="H14" t="n">
         <v>325.3930767845979</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>91.92161561464245</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>33.93376427960212</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
@@ -23706,13 +23706,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>36.42389803927708</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23740,10 +23740,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9134526057738</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.6097194764729</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
         <v>217.5149286494106</v>
@@ -23791,10 +23791,10 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>252.8223333763999</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
@@ -23904,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>32.9952185368712</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23949,16 +23949,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>251.0306046775229</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>2.430367764223234</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>232.6013698112475</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>33.38481720665857</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>9.89929394932031</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>28.3537855385853</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>167.0170989928711</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3311041893321</v>
@@ -24180,13 +24180,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>142.3620141356151</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>325.2041135879425</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
@@ -24268,13 +24268,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>174.2037882845412</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>146.3464154128892</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
         <v>136.9633875020681</v>
@@ -24417,22 +24417,22 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>142.3620141356152</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8296252807355</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
@@ -24499,7 +24499,7 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24508,10 +24508,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>126.4103078272441</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>154.2645116915194</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>123.9441998328196</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>315.9019358523183</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>181.292408623381</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -24739,13 +24739,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>28.35378553858568</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>167.0170989928711</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3311041893321</v>
@@ -24888,10 +24888,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>209.5053094150653</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
         <v>286.0218075870219</v>
@@ -24903,7 +24903,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>174.9237605333562</v>
       </c>
       <c r="G32" t="n">
         <v>413.6097194764729</v>
@@ -24967,16 +24967,16 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.916710376271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -25083,16 +25083,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>79.93326695513088</v>
+        <v>63.86860525398986</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I34" t="n">
         <v>136.9633875020681</v>
@@ -25128,7 +25128,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>196.9351346340481</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3781599023558</v>
@@ -25216,10 +25216,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>137.5302836932816</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>81.68851577858739</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I36" t="n">
         <v>63.56783007605712</v>
@@ -25326,10 +25326,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>83.74690531675508</v>
       </c>
       <c r="H37" t="n">
-        <v>5.811302358187045</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25368,7 +25368,7 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>298.5759251773362</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>157.0446087494359</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>56.95091418212517</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25605,16 +25605,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>142.6269303601258</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>60.18757105697921</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>368.626515737584</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>142.5561610597322</v>
       </c>
       <c r="W43" t="n">
-        <v>202.5083780148386</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>303.9544675041462</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.1068611393034</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>81.68851577858734</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>41.22751706926219</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26037,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>100.3992839396971</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>94.7401475522062</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626434.8988194659</v>
+        <v>626434.898819466</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626434.8988194658</v>
+        <v>626434.898819466</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>626434.898819466</v>
+        <v>626434.8988194658</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626434.898819466</v>
+        <v>626434.8988194661</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>626434.898819466</v>
+        <v>626434.8988194659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626434.898819466</v>
+        <v>626434.8988194658</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626434.8988194659</v>
+        <v>626434.8988194661</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626434.898819466</v>
+        <v>626434.8988194659</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626434.8988194659</v>
+        <v>626434.898819466</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549395.6008150821</v>
+        <v>549395.6008150824</v>
       </c>
       <c r="C2" t="n">
-        <v>549395.6008150822</v>
+        <v>549395.6008150823</v>
       </c>
       <c r="D2" t="n">
         <v>549395.6008150824</v>
       </c>
       <c r="E2" t="n">
+        <v>370369.7689942413</v>
+      </c>
+      <c r="F2" t="n">
         <v>370369.7689942411</v>
       </c>
-      <c r="F2" t="n">
-        <v>370369.7689942414</v>
-      </c>
       <c r="G2" t="n">
-        <v>370369.768994241</v>
+        <v>370369.7689942412</v>
       </c>
       <c r="H2" t="n">
-        <v>370369.7689942412</v>
+        <v>370369.7689942413</v>
       </c>
       <c r="I2" t="n">
-        <v>370369.7689942412</v>
+        <v>370369.7689942411</v>
       </c>
       <c r="J2" t="n">
         <v>370369.7689942411</v>
@@ -26343,7 +26343,7 @@
         <v>370369.7689942413</v>
       </c>
       <c r="L2" t="n">
-        <v>370369.7689942411</v>
+        <v>370369.7689942412</v>
       </c>
       <c r="M2" t="n">
         <v>370369.7689942411</v>
@@ -26352,7 +26352,7 @@
         <v>370369.7689942411</v>
       </c>
       <c r="O2" t="n">
-        <v>370369.7689942413</v>
+        <v>370369.7689942411</v>
       </c>
       <c r="P2" t="n">
         <v>370369.7689942411</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356189.4298866802</v>
+        <v>356189.4298866803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301983.934015274</v>
+        <v>301983.9340152739</v>
       </c>
       <c r="C4" t="n">
         <v>301983.9340152739</v>
@@ -26432,7 +26432,7 @@
         <v>37068.93740564659</v>
       </c>
       <c r="G4" t="n">
-        <v>37068.93740564659</v>
+        <v>37068.93740564658</v>
       </c>
       <c r="H4" t="n">
         <v>37068.93740564659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105188.7989456988</v>
+        <v>105188.7989456992</v>
       </c>
       <c r="C6" t="n">
-        <v>197107.6113134389</v>
+        <v>197107.611313439</v>
       </c>
       <c r="D6" t="n">
         <v>197107.611313439</v>
       </c>
       <c r="E6" t="n">
-        <v>-68180.85941376047</v>
+        <v>-74811.4457774952</v>
       </c>
       <c r="F6" t="n">
-        <v>288008.57047292</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="G6" t="n">
-        <v>288008.5704729196</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="H6" t="n">
-        <v>288008.5704729198</v>
+        <v>281377.9841091851</v>
       </c>
       <c r="I6" t="n">
-        <v>288008.5704729198</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="J6" t="n">
-        <v>216243.8579848334</v>
+        <v>209613.2716210986</v>
       </c>
       <c r="K6" t="n">
-        <v>288008.5704729198</v>
+        <v>281377.9841091851</v>
       </c>
       <c r="L6" t="n">
-        <v>288008.5704729197</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="M6" t="n">
-        <v>198392.5461743823</v>
+        <v>191761.9598106475</v>
       </c>
       <c r="N6" t="n">
-        <v>288008.5704729197</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="O6" t="n">
-        <v>288008.5704729198</v>
+        <v>281377.9841091849</v>
       </c>
       <c r="P6" t="n">
-        <v>288008.5704729197</v>
+        <v>281377.9841091848</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="F3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="G3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="H3" t="n">
         <v>309.705174430311</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.705174430311</v>
+        <v>309.7051744303111</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448123</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>352.7353652320911</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>217.8910797260272</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8829366208612</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -27554,7 +27554,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
@@ -27584,10 +27584,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>216.8354279895964</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27605,7 +27605,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.7486738677682</v>
+        <v>201.4696192350767</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>299.4920977241822</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,10 +27624,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F5" t="n">
-        <v>254.0100517398495</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -27700,13 +27700,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>33.55291585501709</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>187.1537033432166</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
@@ -27779,10 +27779,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>117.0670640461102</v>
+        <v>71.67475217720312</v>
       </c>
       <c r="F7" t="n">
         <v>146.1590214098045</v>
@@ -27797,10 +27797,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497926</v>
+        <v>347.3534026069117</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27873,7 +27873,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>129.2742838785621</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>108.2387424324194</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -27997,10 +27997,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>182.8966084590569</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>58.93128480068995</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -28034,7 +28034,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>74.23872090402212</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H11" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
@@ -31767,10 +31767,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N11" t="n">
         <v>222.1566574333125</v>
@@ -31779,22 +31779,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S11" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I12" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
@@ -31852,7 +31852,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O12" t="n">
         <v>158.4960056351046</v>
@@ -31861,19 +31861,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S12" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
@@ -31922,37 +31922,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L13" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P13" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R13" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T13" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32004,10 +32004,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N14" t="n">
         <v>222.1566574333125</v>
@@ -32016,22 +32016,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S14" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I15" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32098,19 +32098,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S15" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H16" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
@@ -32159,37 +32159,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L16" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P16" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R16" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358033</v>
+        <v>1.245045927358034</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355546</v>
+        <v>12.75082660355547</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447064</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
@@ -32241,10 +32241,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.477585181553</v>
+        <v>196.4775851815531</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922064</v>
+        <v>218.6191706922065</v>
       </c>
       <c r="N17" t="n">
         <v>222.1566574333125</v>
@@ -32253,22 +32253,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614945</v>
+        <v>179.0391606614946</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.4509533879849</v>
+        <v>134.450953387985</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440415</v>
       </c>
       <c r="S17" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009795</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180276</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750426</v>
       </c>
       <c r="I18" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871069</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
@@ -32326,7 +32326,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183303</v>
+        <v>173.2566711183304</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32335,19 +32335,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962051</v>
+        <v>85.03452260962052</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108949</v>
       </c>
       <c r="S18" t="n">
-        <v>12.37359824256949</v>
+        <v>12.3735982425695</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372224</v>
+        <v>2.685085427372225</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759708</v>
       </c>
       <c r="H19" t="n">
-        <v>4.965437058899089</v>
+        <v>4.96543705889909</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
@@ -32396,37 +32396,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015368</v>
       </c>
       <c r="L19" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136571</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363692</v>
+        <v>87.54502168363693</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074476</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167997</v>
       </c>
       <c r="P19" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985012</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897698</v>
       </c>
       <c r="R19" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523051</v>
       </c>
       <c r="T19" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.03046280404232572</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>66.32373477817278</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>192.4911078726684</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L5" t="n">
         <v>204.4954085367308</v>
@@ -35023,16 +35023,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N6" t="n">
-        <v>149.951891953036</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>258.6093926083634</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O11" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P11" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M12" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>279.5874891949642</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M15" t="n">
         <v>514.5419032905515</v>
@@ -35743,7 +35743,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
-        <v>327.7832499334201</v>
+        <v>212.1462185984226</v>
       </c>
       <c r="Q15" t="n">
         <v>167.0326721210326</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281613</v>
+        <v>461.5256681281614</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150998</v>
+        <v>453.3197218150999</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702566</v>
+        <v>381.4626643702567</v>
       </c>
       <c r="P17" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466975</v>
+        <v>138.5104960466976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K18" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299612</v>
+        <v>395.2245205299613</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232032</v>
+        <v>50.11136289232033</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853396</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,13 +36448,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>212.146218598423</v>
       </c>
       <c r="Q24" t="n">
         <v>167.0326721210326</v>
@@ -36676,7 +36676,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
         <v>395.2245205299612</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37159,7 +37159,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
-        <v>229.2086996061998</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299612</v>
@@ -37636,13 +37636,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O39" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P39" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873249</v>
+        <v>280.8981351873248</v>
       </c>
       <c r="L44" t="n">
         <v>400.9729937182839</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
@@ -38113,10 +38113,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
